--- a/气象/备份/备份_For_Python_站点信息和记录.xlsx
+++ b/气象/备份/备份_For_Python_站点信息和记录.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\文档\GIT SYNC\default\气象\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{578853EA-6930-4728-9D54-5075B977945E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56D3EBC5-EBB1-42F4-9DC3-25ACDC9645B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="12975" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2196" uniqueCount="683">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2201" uniqueCount="689">
   <si>
     <t>id</t>
   </si>
@@ -1966,153 +1966,173 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>▼</t>
+    <t>⚡</t>
     <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>💎</t>
+  </si>
+  <si>
+    <t>北红村</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑龙江</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大兴安岭地区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>漠河市</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>新林</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑龙江</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>大兴安岭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑龙江、大兴安岭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>洛古河</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑龙江</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Y</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>中国</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>D</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>黑龙江、大兴安岭</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>塞罕坝</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>可可托海山顶</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>张家界天门山</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>九寨沟长海</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>喀纳斯湖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>赛里木湖</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>💎</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>💎</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>🧊</t>
+  </si>
+  <si>
+    <t>❄️</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>♦️</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>💎</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>⚡</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>↓</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>👑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>👑</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>▼▲</t>
+  </si>
+  <si>
+    <t>▲</t>
+  </si>
+  <si>
+    <t>▲🧊</t>
   </si>
   <si>
     <t>▲</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>⚡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>💎</t>
-  </si>
-  <si>
-    <t>▼❄️</t>
-  </si>
-  <si>
-    <t>❄️</t>
-  </si>
-  <si>
-    <t>北红村</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑龙江</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>大兴安岭地区</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>漠河市</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>新林</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑龙江</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>大兴安岭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑龙江、大兴安岭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>洛古河</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑龙江</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Y</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>中国</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>D</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>黑龙江、大兴安岭</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>塞罕坝</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>可可托海山顶</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>张家界天门山</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>九寨沟长海</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>喀纳斯湖</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>赛里木湖</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>👑💎</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>💎</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>▲</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>⚡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>💎</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>⚡</t>
-    <phoneticPr fontId="2" type="noConversion"/>
+    <t>▼🔵</t>
+  </si>
+  <si>
+    <t>▼</t>
   </si>
 </sst>
 </file>
@@ -2550,7 +2570,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.59765625" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
@@ -2689,7 +2709,7 @@
         <v>12</v>
       </c>
       <c r="K2" s="10" t="s">
-        <v>677</v>
+        <v>673</v>
       </c>
       <c r="L2" t="s">
         <v>29</v>
@@ -2697,8 +2717,8 @@
       <c r="M2" t="s">
         <v>30</v>
       </c>
-      <c r="N2" t="s">
-        <v>646</v>
+      <c r="N2" s="10" t="s">
+        <v>686</v>
       </c>
       <c r="O2" s="1">
         <v>-18.8</v>
@@ -2755,13 +2775,13 @@
         <v>12</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="M3" t="s">
         <v>36</v>
       </c>
-      <c r="N3" t="s">
-        <v>645</v>
+      <c r="N3" s="10" t="s">
+        <v>683</v>
       </c>
       <c r="O3" s="1">
         <v>-21.7</v>
@@ -2825,7 +2845,7 @@
         <v>30</v>
       </c>
       <c r="N4" s="10" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="O4" s="1">
         <v>-11.9</v>
@@ -2941,13 +2961,13 @@
         <v>12</v>
       </c>
       <c r="K6" s="10" t="s">
-        <v>678</v>
+        <v>673</v>
       </c>
       <c r="M6" t="s">
         <v>43</v>
       </c>
       <c r="N6" t="s">
-        <v>649</v>
+        <v>687</v>
       </c>
       <c r="O6" s="1">
         <v>-23.2</v>
@@ -3004,7 +3024,7 @@
         <v>12</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="L7" t="s">
         <v>45</v>
@@ -3013,7 +3033,7 @@
         <v>46</v>
       </c>
       <c r="N7" t="s">
-        <v>679</v>
+        <v>685</v>
       </c>
       <c r="O7" s="1">
         <v>-18.5</v>
@@ -3212,9 +3232,7 @@
       <c r="M10" t="s">
         <v>56</v>
       </c>
-      <c r="N10" s="10" t="s">
-        <v>680</v>
-      </c>
+      <c r="N10" s="10"/>
       <c r="O10" s="1">
         <v>-17</v>
       </c>
@@ -3283,7 +3301,7 @@
         <v>58</v>
       </c>
       <c r="N11" s="10" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="O11" s="1">
         <v>-8</v>
@@ -3420,13 +3438,13 @@
         <v>12</v>
       </c>
       <c r="K13" s="10" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="M13" t="s">
         <v>63</v>
       </c>
       <c r="N13" s="10" t="s">
-        <v>679</v>
+        <v>685</v>
       </c>
       <c r="O13" s="1">
         <v>-22.2</v>
@@ -3673,7 +3691,7 @@
         <v>70</v>
       </c>
       <c r="N17" s="11" t="s">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="O17" s="1"/>
       <c r="P17" s="1"/>
@@ -4435,12 +4453,8 @@
         <v>98</v>
       </c>
       <c r="N31"/>
-      <c r="O31" s="1">
-        <v>-55.6</v>
-      </c>
-      <c r="P31" s="1">
-        <v>-41.5</v>
-      </c>
+      <c r="O31" s="1"/>
+      <c r="P31" s="1"/>
       <c r="Q31" s="1"/>
       <c r="S31" t="s">
         <v>47</v>
@@ -4903,9 +4917,7 @@
       <c r="M40" t="s">
         <v>109</v>
       </c>
-      <c r="N40" s="10" t="s">
-        <v>680</v>
-      </c>
+      <c r="N40" s="10"/>
       <c r="O40" s="1">
         <v>-25</v>
       </c>
@@ -6753,7 +6765,7 @@
         <v>15</v>
       </c>
       <c r="K76" s="10" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="M76" t="s">
         <v>170</v>
@@ -6822,13 +6834,13 @@
         <v>15</v>
       </c>
       <c r="K77" s="10" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="M77" t="s">
         <v>174</v>
       </c>
       <c r="N77" s="11" t="s">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="O77" s="1">
         <v>-20.5</v>
@@ -6934,7 +6946,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="79" spans="1:31" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:31" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A79">
         <v>78</v>
       </c>
@@ -6966,7 +6978,9 @@
       <c r="M79" t="s">
         <v>181</v>
       </c>
-      <c r="N79"/>
+      <c r="N79" s="10" t="s">
+        <v>679</v>
+      </c>
       <c r="O79" s="1">
         <v>-29.9</v>
       </c>
@@ -7097,13 +7111,13 @@
         <v>12</v>
       </c>
       <c r="K81" s="10" t="s">
-        <v>677</v>
+        <v>681</v>
       </c>
       <c r="M81" t="s">
         <v>187</v>
       </c>
       <c r="N81" s="10" t="s">
-        <v>645</v>
+        <v>688</v>
       </c>
       <c r="O81" s="1">
         <v>-40.299999999999997</v>
@@ -7174,13 +7188,13 @@
         <v>12</v>
       </c>
       <c r="K82" s="10" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="M82" t="s">
         <v>191</v>
       </c>
       <c r="N82" s="10" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="O82" s="1">
         <v>-37.4</v>
@@ -7286,7 +7300,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="84" spans="1:32" ht="16.5" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:32" ht="15.4" x14ac:dyDescent="0.4">
       <c r="A84">
         <v>83</v>
       </c>
@@ -7318,8 +7332,8 @@
       <c r="M84" t="s">
         <v>197</v>
       </c>
-      <c r="N84" s="10" t="s">
-        <v>647</v>
+      <c r="N84" s="11" t="s">
+        <v>677</v>
       </c>
       <c r="O84" s="1">
         <v>-18.5</v>
@@ -7386,13 +7400,13 @@
       <c r="J85">
         <v>12</v>
       </c>
-      <c r="K85" s="10" t="s">
-        <v>648</v>
-      </c>
+      <c r="K85" s="10"/>
       <c r="M85" t="s">
         <v>201</v>
       </c>
-      <c r="N85"/>
+      <c r="N85" s="10" t="s">
+        <v>679</v>
+      </c>
       <c r="O85" s="1">
         <v>-10.6</v>
       </c>
@@ -7500,7 +7514,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="87" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:32" ht="16.5" x14ac:dyDescent="0.4">
       <c r="A87">
         <v>86</v>
       </c>
@@ -7528,12 +7542,14 @@
       <c r="J87">
         <v>12</v>
       </c>
-      <c r="K87"/>
+      <c r="K87" s="10" t="s">
+        <v>678</v>
+      </c>
       <c r="M87" t="s">
         <v>208</v>
       </c>
       <c r="N87" t="s">
-        <v>646</v>
+        <v>684</v>
       </c>
       <c r="O87" s="1">
         <v>-16.5</v>
@@ -7735,7 +7751,9 @@
       <c r="M90" t="s">
         <v>217</v>
       </c>
-      <c r="N90"/>
+      <c r="N90" t="s">
+        <v>680</v>
+      </c>
       <c r="O90" s="1">
         <v>-14.3</v>
       </c>
@@ -8000,7 +8018,9 @@
       <c r="M94" t="s">
         <v>237</v>
       </c>
-      <c r="N94"/>
+      <c r="N94" t="s">
+        <v>680</v>
+      </c>
       <c r="O94" s="1">
         <v>-14.7</v>
       </c>
@@ -8150,7 +8170,9 @@
       <c r="M96" t="s">
         <v>248</v>
       </c>
-      <c r="N96"/>
+      <c r="N96" t="s">
+        <v>680</v>
+      </c>
       <c r="O96" s="1"/>
       <c r="P96" s="1"/>
       <c r="Q96" s="1"/>
@@ -8563,7 +8585,7 @@
         <v>12</v>
       </c>
       <c r="K102" s="10" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="M102" t="s">
         <v>274</v>
@@ -8635,7 +8657,7 @@
         <v>12</v>
       </c>
       <c r="K103" s="10" t="s">
-        <v>681</v>
+        <v>674</v>
       </c>
       <c r="M103" t="s">
         <v>277</v>
@@ -8776,13 +8798,13 @@
         <v>12</v>
       </c>
       <c r="K105" s="10" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="M105" t="s">
         <v>284</v>
       </c>
       <c r="N105" t="s">
-        <v>645</v>
+        <v>688</v>
       </c>
       <c r="O105" s="1">
         <v>-31.7</v>
@@ -8850,13 +8872,13 @@
         <v>12</v>
       </c>
       <c r="K106" s="10" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="M106" t="s">
         <v>286</v>
       </c>
       <c r="N106" t="s">
-        <v>646</v>
+        <v>684</v>
       </c>
       <c r="O106" s="1">
         <v>-24.1</v>
@@ -9375,7 +9397,7 @@
         <v>310</v>
       </c>
       <c r="N114" s="11" t="s">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="O114" s="1">
         <v>-28.7</v>
@@ -9451,7 +9473,7 @@
         <v>315</v>
       </c>
       <c r="N115" s="11" t="s">
-        <v>650</v>
+        <v>675</v>
       </c>
       <c r="O115" s="1">
         <v>-24.8</v>
@@ -9665,7 +9687,7 @@
         <v>327</v>
       </c>
       <c r="N118" s="10" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="O118" s="1">
         <v>-21.3</v>
@@ -12646,7 +12668,7 @@
         <v>540</v>
       </c>
       <c r="N162" s="10" t="s">
-        <v>680</v>
+        <v>645</v>
       </c>
       <c r="O162" s="1"/>
       <c r="P162" s="1"/>
@@ -12708,7 +12730,7 @@
         <v>544</v>
       </c>
       <c r="N163" t="s">
-        <v>645</v>
+        <v>688</v>
       </c>
       <c r="O163" s="1"/>
       <c r="P163" s="1"/>
@@ -12765,7 +12787,7 @@
         <v>546</v>
       </c>
       <c r="N164" t="s">
-        <v>646</v>
+        <v>684</v>
       </c>
       <c r="O164" s="1"/>
       <c r="P164" s="1"/>
@@ -12825,7 +12847,7 @@
         <v>550</v>
       </c>
       <c r="N165" s="10" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="O165" s="1">
         <v>-33</v>
@@ -12882,13 +12904,13 @@
         <v>12</v>
       </c>
       <c r="K166" s="10" t="s">
-        <v>648</v>
+        <v>678</v>
       </c>
       <c r="M166" t="s">
         <v>552</v>
       </c>
       <c r="N166" t="s">
-        <v>645</v>
+        <v>688</v>
       </c>
       <c r="O166" s="1"/>
       <c r="P166" s="1"/>
@@ -12983,7 +13005,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="168" spans="1:32" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:32" ht="15.4" x14ac:dyDescent="0.4">
       <c r="A168">
         <v>167</v>
       </c>
@@ -13006,7 +13028,9 @@
       <c r="M168" t="s">
         <v>556</v>
       </c>
-      <c r="N168"/>
+      <c r="N168" s="11" t="s">
+        <v>676</v>
+      </c>
       <c r="O168" s="1">
         <v>-17.100000000000001</v>
       </c>
@@ -13069,7 +13093,7 @@
         <v>560</v>
       </c>
       <c r="N169" s="10" t="s">
-        <v>647</v>
+        <v>680</v>
       </c>
       <c r="O169" s="1">
         <v>-23.1</v>
@@ -13133,7 +13157,7 @@
         <v>563</v>
       </c>
       <c r="N170" s="10" t="s">
-        <v>647</v>
+        <v>679</v>
       </c>
       <c r="O170" s="1"/>
       <c r="P170" s="1"/>
@@ -13187,7 +13211,7 @@
       </c>
       <c r="K171"/>
       <c r="M171" t="s">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="N171"/>
       <c r="O171" s="1"/>
@@ -13240,13 +13264,13 @@
       <c r="J172">
         <v>12</v>
       </c>
-      <c r="K172"/>
+      <c r="K172" s="10" t="s">
+        <v>678</v>
+      </c>
       <c r="M172" t="s">
         <v>566</v>
       </c>
-      <c r="N172" s="10" t="s">
-        <v>682</v>
-      </c>
+      <c r="N172" s="10"/>
       <c r="O172" s="1">
         <v>-23.9</v>
       </c>
@@ -13306,7 +13330,7 @@
       </c>
       <c r="K173"/>
       <c r="M173" t="s">
-        <v>671</v>
+        <v>667</v>
       </c>
       <c r="N173"/>
       <c r="O173" s="1">
@@ -13595,7 +13619,7 @@
       </c>
       <c r="K178"/>
       <c r="M178" t="s">
-        <v>675</v>
+        <v>671</v>
       </c>
       <c r="N178"/>
       <c r="O178" s="1"/>
@@ -13659,7 +13683,7 @@
       </c>
       <c r="K179"/>
       <c r="M179" t="s">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="N179"/>
       <c r="O179" s="1"/>
@@ -13720,7 +13744,7 @@
       </c>
       <c r="K180"/>
       <c r="M180" t="s">
-        <v>674</v>
+        <v>670</v>
       </c>
       <c r="N180"/>
       <c r="O180" s="1"/>
@@ -13775,7 +13799,7 @@
       </c>
       <c r="K181"/>
       <c r="M181" t="s">
-        <v>673</v>
+        <v>669</v>
       </c>
       <c r="N181"/>
       <c r="O181" s="1"/>
@@ -14045,7 +14069,9 @@
       <c r="J186">
         <v>15</v>
       </c>
-      <c r="K186"/>
+      <c r="K186" s="10" t="s">
+        <v>682</v>
+      </c>
       <c r="M186" t="s">
         <v>608</v>
       </c>
@@ -14796,7 +14822,7 @@
         <v>12</v>
       </c>
       <c r="M198" s="6" t="s">
-        <v>651</v>
+        <v>647</v>
       </c>
       <c r="O198" s="1">
         <v>-36.799999999999997</v>
@@ -14806,31 +14832,31 @@
       </c>
       <c r="Q198" s="1"/>
       <c r="S198" t="s">
+        <v>648</v>
+      </c>
+      <c r="T198" s="8" t="s">
+        <v>649</v>
+      </c>
+      <c r="U198" s="8" t="s">
+        <v>649</v>
+      </c>
+      <c r="V198" s="8" t="s">
+        <v>649</v>
+      </c>
+      <c r="X198" s="8" t="s">
+        <v>650</v>
+      </c>
+      <c r="Y198" s="8" t="s">
+        <v>651</v>
+      </c>
+      <c r="AB198" t="s">
         <v>652</v>
       </c>
-      <c r="T198" s="8" t="s">
+      <c r="AC198" t="s">
         <v>653</v>
       </c>
-      <c r="U198" s="8" t="s">
-        <v>653</v>
-      </c>
-      <c r="V198" s="8" t="s">
-        <v>653</v>
-      </c>
-      <c r="X198" s="8" t="s">
-        <v>654</v>
-      </c>
-      <c r="Y198" s="8" t="s">
-        <v>655</v>
-      </c>
-      <c r="AB198" t="s">
-        <v>656</v>
-      </c>
-      <c r="AC198" t="s">
-        <v>657</v>
-      </c>
       <c r="AE198" t="s">
-        <v>664</v>
+        <v>660</v>
       </c>
     </row>
     <row r="199" spans="1:31" x14ac:dyDescent="0.4">
@@ -14850,7 +14876,7 @@
         <v>12</v>
       </c>
       <c r="M199" s="6" t="s">
-        <v>658</v>
+        <v>654</v>
       </c>
       <c r="O199" s="1">
         <v>-29.4</v>
@@ -14860,28 +14886,28 @@
       </c>
       <c r="Q199" s="1"/>
       <c r="S199" t="s">
+        <v>655</v>
+      </c>
+      <c r="T199" s="8" t="s">
+        <v>656</v>
+      </c>
+      <c r="U199" s="8" t="s">
+        <v>656</v>
+      </c>
+      <c r="V199" s="8" t="s">
+        <v>656</v>
+      </c>
+      <c r="X199" s="8" t="s">
+        <v>650</v>
+      </c>
+      <c r="AB199" t="s">
+        <v>657</v>
+      </c>
+      <c r="AC199" t="s">
+        <v>658</v>
+      </c>
+      <c r="AE199" t="s">
         <v>659</v>
-      </c>
-      <c r="T199" s="8" t="s">
-        <v>660</v>
-      </c>
-      <c r="U199" s="8" t="s">
-        <v>660</v>
-      </c>
-      <c r="V199" s="8" t="s">
-        <v>660</v>
-      </c>
-      <c r="X199" s="8" t="s">
-        <v>654</v>
-      </c>
-      <c r="AB199" t="s">
-        <v>661</v>
-      </c>
-      <c r="AC199" t="s">
-        <v>662</v>
-      </c>
-      <c r="AE199" t="s">
-        <v>663</v>
       </c>
     </row>
     <row r="200" spans="1:31" x14ac:dyDescent="0.4">
@@ -14901,7 +14927,7 @@
         <v>12</v>
       </c>
       <c r="M200" s="6" t="s">
-        <v>665</v>
+        <v>661</v>
       </c>
       <c r="O200" s="1">
         <v>-36.799999999999997</v>
@@ -14911,31 +14937,31 @@
       </c>
       <c r="Q200" s="1"/>
       <c r="S200" t="s">
+        <v>662</v>
+      </c>
+      <c r="T200" s="8" t="s">
+        <v>663</v>
+      </c>
+      <c r="U200" s="8" t="s">
+        <v>663</v>
+      </c>
+      <c r="V200" s="8" t="s">
+        <v>663</v>
+      </c>
+      <c r="X200" s="8" t="s">
+        <v>650</v>
+      </c>
+      <c r="Y200" s="8" t="s">
+        <v>651</v>
+      </c>
+      <c r="AB200" t="s">
+        <v>664</v>
+      </c>
+      <c r="AC200" t="s">
+        <v>665</v>
+      </c>
+      <c r="AE200" t="s">
         <v>666</v>
-      </c>
-      <c r="T200" s="8" t="s">
-        <v>667</v>
-      </c>
-      <c r="U200" s="8" t="s">
-        <v>667</v>
-      </c>
-      <c r="V200" s="8" t="s">
-        <v>667</v>
-      </c>
-      <c r="X200" s="8" t="s">
-        <v>654</v>
-      </c>
-      <c r="Y200" s="8" t="s">
-        <v>655</v>
-      </c>
-      <c r="AB200" t="s">
-        <v>668</v>
-      </c>
-      <c r="AC200" t="s">
-        <v>669</v>
-      </c>
-      <c r="AE200" t="s">
-        <v>670</v>
       </c>
     </row>
     <row r="201" spans="1:31" x14ac:dyDescent="0.4">
@@ -15705,5 +15731,6 @@
   </autoFilter>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>